--- a/results/cifar10_training/results_naive_joint-training_cifar10.xlsx
+++ b/results/cifar10_training/results_naive_joint-training_cifar10.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="naive_after_task1" sheetId="1" r:id="rId1"/>
+    <sheet name="joint-datasets_after_task1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.605732103269927</v>
+        <v>1.646377249153293</v>
       </c>
       <c r="D3">
-        <v>1.387469863891602</v>
+        <v>1.336448287963867</v>
       </c>
       <c r="E3">
-        <v>49.68</v>
+        <v>51.84</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -478,10 +478,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.007039585709571838</v>
+        <v>0.0067015340924263</v>
       </c>
       <c r="J3">
-        <v>49.68</v>
+        <v>51.84</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -492,13 +492,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.214779481109308</v>
+        <v>1.230382806670909</v>
       </c>
       <c r="D4">
-        <v>1.095096266269684</v>
+        <v>1.191968059539795</v>
       </c>
       <c r="E4">
-        <v>60.68</v>
+        <v>56.37</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -507,10 +507,10 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>0.005515442633628845</v>
+        <v>0.006039136332273484</v>
       </c>
       <c r="J4">
-        <v>60.68</v>
+        <v>56.37</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -521,13 +521,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.025743695911096</v>
+        <v>1.045593759235071</v>
       </c>
       <c r="D5">
-        <v>0.9388316869735718</v>
+        <v>0.9977485537528992</v>
       </c>
       <c r="E5">
-        <v>65.69</v>
+        <v>63.8</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -536,10 +536,10 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <v>0.004841616332530975</v>
+        <v>0.005048685157299042</v>
       </c>
       <c r="J5">
-        <v>65.69</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -550,13 +550,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9053087494811233</v>
+        <v>0.9086900042027843</v>
       </c>
       <c r="D6">
-        <v>0.9442286968231202</v>
+        <v>0.9067391633987427</v>
       </c>
       <c r="E6">
-        <v>67.06999999999999</v>
+        <v>67.61</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -565,10 +565,10 @@
         <v>4</v>
       </c>
       <c r="I6">
-        <v>0.004714398694038391</v>
+        <v>0.004658758252859115</v>
       </c>
       <c r="J6">
-        <v>67.06999999999999</v>
+        <v>67.61</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -579,13 +579,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8106180665444355</v>
+        <v>0.8091562198132884</v>
       </c>
       <c r="D7">
-        <v>0.8497799754142761</v>
+        <v>0.8111109852790832</v>
       </c>
       <c r="E7">
-        <v>69.48999999999999</v>
+        <v>70.39</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -594,10 +594,10 @@
         <v>5</v>
       </c>
       <c r="I7">
-        <v>0.004308381670713425</v>
+        <v>0.004247762632369995</v>
       </c>
       <c r="J7">
-        <v>69.48999999999999</v>
+        <v>70.39</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -608,13 +608,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.7281928055140436</v>
+        <v>0.7292847212480039</v>
       </c>
       <c r="D8">
-        <v>0.8222749114036561</v>
+        <v>0.7599637389183045</v>
       </c>
       <c r="E8">
-        <v>70.87</v>
+        <v>71.42</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -623,10 +623,10 @@
         <v>6</v>
       </c>
       <c r="I8">
-        <v>0.004175190228223801</v>
+        <v>0.004059910750389099</v>
       </c>
       <c r="J8">
-        <v>70.87</v>
+        <v>71.42</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -637,13 +637,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.6646262670049862</v>
+        <v>0.6632278554293574</v>
       </c>
       <c r="D9">
-        <v>0.8041465163230896</v>
+        <v>0.7222894310951233</v>
       </c>
       <c r="E9">
-        <v>71.51000000000001</v>
+        <v>72.84999999999999</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -652,10 +652,10 @@
         <v>7</v>
       </c>
       <c r="I9">
-        <v>0.004149610608816147</v>
+        <v>0.003899666100740433</v>
       </c>
       <c r="J9">
-        <v>71.51000000000001</v>
+        <v>72.84999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -666,13 +666,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.5870542155236614</v>
+        <v>0.5913400566091342</v>
       </c>
       <c r="D10">
-        <v>0.7752847671508789</v>
+        <v>0.7514487981796265</v>
       </c>
       <c r="E10">
-        <v>73.18000000000001</v>
+        <v>73.27</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -681,10 +681,10 @@
         <v>8</v>
       </c>
       <c r="I10">
-        <v>0.003940638369321823</v>
+        <v>0.003873224526643753</v>
       </c>
       <c r="J10">
-        <v>73.18000000000001</v>
+        <v>73.27</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -695,13 +695,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.5172762823348143</v>
+        <v>0.5300374897158876</v>
       </c>
       <c r="D11">
-        <v>0.7437751293182373</v>
+        <v>0.7303949117660522</v>
       </c>
       <c r="E11">
-        <v>73.87</v>
+        <v>74.31</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -710,10 +710,10 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>0.003856342279911041</v>
+        <v>0.003765061503648758</v>
       </c>
       <c r="J11">
-        <v>73.87</v>
+        <v>74.31</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -724,13 +724,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4644623413377879</v>
+        <v>0.4679656293927407</v>
       </c>
       <c r="D12">
-        <v>0.7535738706588745</v>
+        <v>0.7443428874015808</v>
       </c>
       <c r="E12">
-        <v>73.86</v>
+        <v>73.97</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -739,10 +739,10 @@
         <v>10</v>
       </c>
       <c r="I12">
-        <v>0.003966014832258224</v>
+        <v>0.003889581054449082</v>
       </c>
       <c r="J12">
-        <v>73.86</v>
+        <v>73.97</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -753,13 +753,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.3991322304521288</v>
+        <v>0.4076464156107027</v>
       </c>
       <c r="D13">
-        <v>0.7870453238487244</v>
+        <v>0.7361296892166138</v>
       </c>
       <c r="E13">
-        <v>74.34999999999999</v>
+        <v>73.93000000000001</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -768,10 +768,10 @@
         <v>11</v>
       </c>
       <c r="I13">
-        <v>0.004071735179424286</v>
+        <v>0.003958344069123268</v>
       </c>
       <c r="J13">
-        <v>74.34999999999999</v>
+        <v>73.93000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -782,13 +782,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.3454347379353582</v>
+        <v>0.3530063771471685</v>
       </c>
       <c r="D14">
-        <v>0.803121280670166</v>
+        <v>0.7372122526168823</v>
       </c>
       <c r="E14">
-        <v>74.12</v>
+        <v>75.03</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -797,10 +797,10 @@
         <v>12</v>
       </c>
       <c r="I14">
-        <v>0.004199209505319595</v>
+        <v>0.003943532311916352</v>
       </c>
       <c r="J14">
-        <v>74.12</v>
+        <v>75.03</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -811,13 +811,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.2933644836046258</v>
+        <v>0.5240375629493168</v>
       </c>
       <c r="D15">
-        <v>0.8371685385704041</v>
+        <v>0.7147934436798096</v>
       </c>
       <c r="E15">
-        <v>74.23999999999999</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -826,10 +826,10 @@
         <v>13</v>
       </c>
       <c r="I15">
-        <v>0.004397279965877533</v>
+        <v>0.003752351200580597</v>
       </c>
       <c r="J15">
-        <v>74.23999999999999</v>
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -840,13 +840,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.2344010719231197</v>
+        <v>0.4961007103628042</v>
       </c>
       <c r="D16">
-        <v>0.9411392092704773</v>
+        <v>0.6973444700241089</v>
       </c>
       <c r="E16">
-        <v>74.23999999999999</v>
+        <v>74.84</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -855,10 +855,10 @@
         <v>14</v>
       </c>
       <c r="I16">
-        <v>0.004655555331707001</v>
+        <v>0.003705506980419159</v>
       </c>
       <c r="J16">
-        <v>74.23999999999999</v>
+        <v>74.84</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -869,13 +869,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.3796101472207478</v>
+        <v>0.4750331670654063</v>
       </c>
       <c r="D17">
-        <v>0.7258708238601684</v>
+        <v>0.6923460006713867</v>
       </c>
       <c r="E17">
-        <v>75.42</v>
+        <v>75.04000000000001</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -884,10 +884,10 @@
         <v>15</v>
       </c>
       <c r="I17">
-        <v>0.003768843996524811</v>
+        <v>0.003689078244566917</v>
       </c>
       <c r="J17">
-        <v>75.42</v>
+        <v>75.04000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -898,13 +898,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.3487795527492251</v>
+        <v>0.45549221075311</v>
       </c>
       <c r="D18">
-        <v>0.735563862323761</v>
+        <v>0.7082119703292846</v>
       </c>
       <c r="E18">
-        <v>74.83</v>
+        <v>74.69</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -913,10 +913,10 @@
         <v>16</v>
       </c>
       <c r="I18">
-        <v>0.003870440655946732</v>
+        <v>0.00375215744972229</v>
       </c>
       <c r="J18">
-        <v>74.83</v>
+        <v>74.69</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -927,13 +927,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.3285145569820793</v>
+        <v>0.4383750628451912</v>
       </c>
       <c r="D19">
-        <v>0.7526543617248536</v>
+        <v>0.7176595449447631</v>
       </c>
       <c r="E19">
-        <v>75.48999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -942,10 +942,10 @@
         <v>17</v>
       </c>
       <c r="I19">
-        <v>0.003910163861513138</v>
+        <v>0.003763783776760101</v>
       </c>
       <c r="J19">
-        <v>75.48999999999999</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -956,13 +956,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.3108226095535317</v>
+        <v>0.4195258226929879</v>
       </c>
       <c r="D20">
-        <v>0.7513690948486328</v>
+        <v>0.7028288602828979</v>
       </c>
       <c r="E20">
-        <v>75.43000000000001</v>
+        <v>75.36</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -971,10 +971,10 @@
         <v>18</v>
       </c>
       <c r="I20">
-        <v>0.004001864236593247</v>
+        <v>0.003722845929861069</v>
       </c>
       <c r="J20">
-        <v>75.43000000000001</v>
+        <v>75.36</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -985,13 +985,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.293087456116871</v>
+        <v>0.3996751639307762</v>
       </c>
       <c r="D21">
-        <v>0.7711458563804626</v>
+        <v>0.7138570189476013</v>
       </c>
       <c r="E21">
-        <v>75.31999999999999</v>
+        <v>75.20999999999999</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1000,10 +1000,10 @@
         <v>19</v>
       </c>
       <c r="I21">
-        <v>0.004005038976669311</v>
+        <v>0.00374254395365715</v>
       </c>
       <c r="J21">
-        <v>75.31999999999999</v>
+        <v>75.20999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1014,13 +1014,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.2732740903387264</v>
+        <v>0.3836170034140957</v>
       </c>
       <c r="D22">
-        <v>0.7646207094192505</v>
+        <v>0.714115834236145</v>
       </c>
       <c r="E22">
-        <v>75.37</v>
+        <v>75.3</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1029,10 +1029,10 @@
         <v>20</v>
       </c>
       <c r="I22">
-        <v>0.004085265213251114</v>
+        <v>0.003790253400802612</v>
       </c>
       <c r="J22">
-        <v>75.37</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1043,13 +1043,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.3354041055757172</v>
+        <v>0.4398005764095151</v>
       </c>
       <c r="D23">
-        <v>0.7260124087333679</v>
+        <v>0.6904516339302063</v>
       </c>
       <c r="E23">
-        <v>75.62</v>
+        <v>75.31999999999999</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1058,10 +1058,10 @@
         <v>21</v>
       </c>
       <c r="I23">
-        <v>0.003786146509647369</v>
+        <v>0.003658279645442962</v>
       </c>
       <c r="J23">
-        <v>75.62</v>
+        <v>75.31999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1072,13 +1072,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.3281860787649544</v>
+        <v>0.4335430353271718</v>
       </c>
       <c r="D24">
-        <v>0.7188213109970093</v>
+        <v>0.6886540412902832</v>
       </c>
       <c r="E24">
-        <v>75.66</v>
+        <v>75.42</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1087,10 +1087,10 @@
         <v>22</v>
       </c>
       <c r="I24">
-        <v>0.003791705173254013</v>
+        <v>0.003655935353040695</v>
       </c>
       <c r="J24">
-        <v>75.66</v>
+        <v>75.42</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1101,13 +1101,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.3227997425259376</v>
+        <v>0.4283898581047447</v>
       </c>
       <c r="D25">
-        <v>0.7229564309120178</v>
+        <v>0.6951533436775208</v>
       </c>
       <c r="E25">
-        <v>75.65000000000001</v>
+        <v>75.38</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1116,10 +1116,10 @@
         <v>23</v>
       </c>
       <c r="I25">
-        <v>0.003819975543022156</v>
+        <v>0.003668103164434433</v>
       </c>
       <c r="J25">
-        <v>75.65000000000001</v>
+        <v>75.38</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1130,13 +1130,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.317252974060117</v>
+        <v>0.424234146366314</v>
       </c>
       <c r="D26">
-        <v>0.7290130257606506</v>
+        <v>0.6972607731819153</v>
       </c>
       <c r="E26">
-        <v>75.63</v>
+        <v>75.53</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1145,10 +1145,10 @@
         <v>24</v>
       </c>
       <c r="I26">
-        <v>0.00382293781042099</v>
+        <v>0.0036801553606987</v>
       </c>
       <c r="J26">
-        <v>75.63</v>
+        <v>75.53</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1159,13 +1159,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.3117941395968807</v>
+        <v>0.4199508109871222</v>
       </c>
       <c r="D27">
-        <v>0.7337389826774597</v>
+        <v>0.6900336027145386</v>
       </c>
       <c r="E27">
-        <v>75.86</v>
+        <v>75.5</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1174,10 +1174,10 @@
         <v>25</v>
       </c>
       <c r="I27">
-        <v>0.003858839392662048</v>
+        <v>0.003668453359603882</v>
       </c>
       <c r="J27">
-        <v>75.86</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1188,13 +1188,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.3070879666780939</v>
+        <v>0.4158378115722111</v>
       </c>
       <c r="D28">
-        <v>0.7380483984947205</v>
+        <v>0.6927130937576294</v>
       </c>
       <c r="E28">
-        <v>75.75</v>
+        <v>75.28</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1203,10 +1203,10 @@
         <v>26</v>
       </c>
       <c r="I28">
-        <v>0.003867045176029205</v>
+        <v>0.003677964514493942</v>
       </c>
       <c r="J28">
-        <v>75.75</v>
+        <v>75.28</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1217,13 +1217,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.3020488379561171</v>
+        <v>0.4101625398105505</v>
       </c>
       <c r="D29">
-        <v>0.7298909544944763</v>
+        <v>0.6903794884681702</v>
       </c>
       <c r="E29">
-        <v>75.56999999999999</v>
+        <v>75.53</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1232,10 +1232,10 @@
         <v>27</v>
       </c>
       <c r="I29">
-        <v>0.003880206626653671</v>
+        <v>0.003657609480619431</v>
       </c>
       <c r="J29">
-        <v>75.56999999999999</v>
+        <v>75.53</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1246,13 +1246,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.3195841497304488</v>
+        <v>0.425295884755193</v>
       </c>
       <c r="D30">
-        <v>0.7248079776763916</v>
+        <v>0.6905232787132263</v>
       </c>
       <c r="E30">
-        <v>75.59</v>
+        <v>75.47</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1261,10 +1261,10 @@
         <v>28</v>
       </c>
       <c r="I30">
-        <v>0.00379457750916481</v>
+        <v>0.003653058338165283</v>
       </c>
       <c r="J30">
-        <v>75.59</v>
+        <v>75.47</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1275,13 +1275,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.3180477926925737</v>
+        <v>0.4238404433338009</v>
       </c>
       <c r="D31">
-        <v>0.7250622749328614</v>
+        <v>0.6902877926826477</v>
       </c>
       <c r="E31">
-        <v>75.65000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1290,10 +1290,10 @@
         <v>29</v>
       </c>
       <c r="I31">
-        <v>0.003801305639743805</v>
+        <v>0.003653685906529426</v>
       </c>
       <c r="J31">
-        <v>75.65000000000001</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1304,13 +1304,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.3165716156667592</v>
+        <v>0.4227969134340481</v>
       </c>
       <c r="D32">
-        <v>0.7273502588272095</v>
+        <v>0.6905940175056458</v>
       </c>
       <c r="E32">
-        <v>75.55</v>
+        <v>75.3</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1319,10 +1319,10 @@
         <v>30</v>
       </c>
       <c r="I32">
-        <v>0.003804654294252396</v>
+        <v>0.003654783833026886</v>
       </c>
       <c r="J32">
-        <v>75.55</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1333,13 +1333,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.3154432483473603</v>
+        <v>0.4217399243189364</v>
       </c>
       <c r="D33">
-        <v>0.7251267075538635</v>
+        <v>0.6904921770095825</v>
       </c>
       <c r="E33">
-        <v>75.63</v>
+        <v>75.34</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1348,10 +1348,10 @@
         <v>31</v>
       </c>
       <c r="I33">
-        <v>0.00380901700258255</v>
+        <v>0.003655805158615112</v>
       </c>
       <c r="J33">
-        <v>75.63</v>
+        <v>75.34</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1362,13 +1362,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.3140799850833659</v>
+        <v>0.4207482026547802</v>
       </c>
       <c r="D34">
-        <v>0.7278995752334595</v>
+        <v>0.6910329818725586</v>
       </c>
       <c r="E34">
-        <v>75.68000000000001</v>
+        <v>75.45999999999999</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1377,10 +1377,10 @@
         <v>32</v>
       </c>
       <c r="I34">
-        <v>0.003819275295734406</v>
+        <v>0.003657100480794906</v>
       </c>
       <c r="J34">
-        <v>75.68000000000001</v>
+        <v>75.45999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1391,13 +1391,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.3192319754435092</v>
+        <v>0.424675516206391</v>
       </c>
       <c r="D35">
-        <v>0.7237791895866394</v>
+        <v>0.6897433876991272</v>
       </c>
       <c r="E35">
-        <v>75.61</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1406,10 +1406,10 @@
         <v>33</v>
       </c>
       <c r="I35">
-        <v>0.003789117658138275</v>
+        <v>0.00365116440653801</v>
       </c>
       <c r="J35">
-        <v>75.61</v>
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1420,13 +1420,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.3184039798318123</v>
+        <v>0.4240329271676589</v>
       </c>
       <c r="D36">
-        <v>0.7233601570129394</v>
+        <v>0.689545464515686</v>
       </c>
       <c r="E36">
-        <v>75.64</v>
+        <v>75.33</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1435,10 +1435,10 @@
         <v>34</v>
       </c>
       <c r="I36">
-        <v>0.003790606164932251</v>
+        <v>0.003651230055093765</v>
       </c>
       <c r="J36">
-        <v>75.64</v>
+        <v>75.33</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1449,13 +1449,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.318025495324816</v>
+        <v>0.4237239598011484</v>
       </c>
       <c r="D37">
-        <v>0.7240925192832947</v>
+        <v>0.68962721824646</v>
       </c>
       <c r="E37">
-        <v>75.64</v>
+        <v>75.31999999999999</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1464,10 +1464,10 @@
         <v>35</v>
       </c>
       <c r="I37">
-        <v>0.003793431997299195</v>
+        <v>0.00365224147439003</v>
       </c>
       <c r="J37">
-        <v>75.64</v>
+        <v>75.31999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1478,13 +1478,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.3176864326000214</v>
+        <v>0.4234603730999694</v>
       </c>
       <c r="D38">
-        <v>0.7240785479545593</v>
+        <v>0.6898393869400025</v>
       </c>
       <c r="E38">
-        <v>75.69</v>
+        <v>75.37</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>36</v>
       </c>
       <c r="I38">
-        <v>0.003795034468173981</v>
+        <v>0.003653755432367325</v>
       </c>
       <c r="J38">
-        <v>75.69</v>
+        <v>75.37</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1507,13 +1507,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.3173562597863528</v>
+        <v>0.4232553572070842</v>
       </c>
       <c r="D39">
-        <v>0.7247001051902771</v>
+        <v>0.6899454116821289</v>
       </c>
       <c r="E39">
-        <v>75.7</v>
+        <v>75.39</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1522,10 +1522,10 @@
         <v>37</v>
       </c>
       <c r="I39">
-        <v>0.003796360731124878</v>
+        <v>0.00365321980714798</v>
       </c>
       <c r="J39">
-        <v>75.7</v>
+        <v>75.39</v>
       </c>
     </row>
   </sheetData>
